--- a/medicine/Enfance/Alice_et_la_Pantoufle_d'hermine/Alice_et_la_Pantoufle_d'hermine.xlsx
+++ b/medicine/Enfance/Alice_et_la_Pantoufle_d'hermine/Alice_et_la_Pantoufle_d'hermine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_la_Pantoufle_d%27hermine</t>
+          <t>Alice_et_la_Pantoufle_d'hermine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et la Pantoufle d'hermine (titre original : The Clue in the Crumbling Wall, littéralement : « L'indice dans le mur qui tombe en ruine ») est le vingt-deuxième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson.
+Alice et la Pantoufle d'hermine (titre original : The Clue in the Crumbling Wall, littéralement : « L'indice dans le mur qui tombe en ruine ») est le vingt-deuxième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson.
 Aux États-Unis, le roman a été publié pour la première fois en 1945 par Grosset &amp; Dunlap, New York. En France, il a paru pour la première fois en 1965 chez Hachette Jeunesse dans la collection « Bibliothèque verte » sous le no 268.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_la_Pantoufle_d%27hermine</t>
+          <t>Alice_et_la_Pantoufle_d'hermine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1965 à 1971 en langue française.
 Des plants de rosiers sont volés dans le jardin des Roy. Alice découvre que la voleuse est une fillette de huit ans, Roseline Fenimore. Passionnée de fleurs, elle ne peut s'en offrir, car elle vit dans la pauvreté avec sa mère, une veuve malade. Mme Fennimore confie à Alice que si l'on pouvait retrouver sa sœur Floriane, une danseuse disparue plusieurs années auparavant, Roseline et elle-même seraient à l'abri du besoin : en effet, le fiancé de Floriane, un homme d'affaires très riche du nom de John Trabert, était mort en léguant son château et sa fortune à sa fiancée.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_la_Pantoufle_d%27hermine</t>
+          <t>Alice_et_la_Pantoufle_d'hermine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy : jeune détective amateur blonde, orpheline de mère, fille de James Roy.
-James Roy : avoué[2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy : jeune détective amateur blonde, orpheline de mère, fille de James Roy.
+James Roy : avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor : jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb : jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
-Sarah : la fidèle vieille gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Méptit (Salty en VO) : vendeur de produits de la mer, retraité de la marine, qui aide Alice.
+Sarah : la fidèle vieille gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_la_Pantoufle_d'hermine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_la_Pantoufle_d%27hermine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Méptit (Salty en VO) : vendeur de produits de la mer, retraité de la marine, qui aide Alice.
 Lieutenant Masters : jeune femme assistante de police.
 Mme Fenimore : veuve pauvre et malade.
 Roseline Fenimore (Joan Fenimore en VO) : sa fille de huit ans.
@@ -568,31 +621,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_la_Pantoufle_d%27hermine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_la_Pantoufle_d'hermine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_la_Pantoufle_d%27hermine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : Toutes les éditions ont paru aux éditions Hachette.
 1965 : Alice et la Pantoufle d'hermine — coll. « Bibliothèque verte » no 268, cartonné, texte original. Illustré par Albert Chazelle. Traduit par Anne Joba. 252 p. 
@@ -605,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alice_et_la_Pantoufle_d%27hermine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alice_et_la_Pantoufle_d'hermine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_la_Pantoufle_d%27hermine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La traductrice Anne Joba a pris des libertés avec le texte original en insérant un extrait de la fable de La Fontaine, La Laitière et le Pot au lait : « Adieu veau, vache, cochons, couvée ! » (cf. page 16, chapitre II). Ce passage n’existe pas dans la version originale américaine.
 Aux États-Unis, ce titre sera entièrement revu en 1965 par Harriet Adams. Deux versions existent donc aux États-Unis portant le même titre.
